--- a/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C670AD-B1AD-1043-AE92-D03F859053CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FCE1A4-5346-BC4C-BF04-38E76402C63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{14C4862E-D5C5-2A49-820C-32CA6AE9D6C2}"/>
   </bookViews>
@@ -603,7 +603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FCE1A4-5346-BC4C-BF04-38E76402C63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FCA23-2B68-9C4F-A95F-975ACE6C14AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{14C4862E-D5C5-2A49-820C-32CA6AE9D6C2}"/>
   </bookViews>
@@ -603,7 +603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FCA23-2B68-9C4F-A95F-975ACE6C14AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34CA285-7DDD-724B-82A9-AB4D0DE5FFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{14C4862E-D5C5-2A49-820C-32CA6AE9D6C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>drg_location</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>location_sobriquet</t>
+  </si>
+  <si>
+    <t>new db table</t>
+  </si>
+  <si>
+    <t>(wp prefix)_zen_terrain_documents</t>
   </si>
 </sst>
 </file>
@@ -599,11 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0A80BD-7D26-6B43-92D3-3508CEB5CD37}">
-  <dimension ref="D1:G139"/>
+  <dimension ref="D1:G152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,284 +662,296 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="1" t="s">
+    <row r="31" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E43" s="1" t="s">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F56" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E44" s="1" t="s">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E45" s="1" t="s">
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E58" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E46" s="1" t="s">
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E47" s="3" t="s">
+      <c r="F59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E60" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E48" s="1" t="s">
+      <c r="F60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E49" s="1" t="s">
+      <c r="F61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E50" s="1" t="s">
+      <c r="F62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E51" t="s">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
         <v>46</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F64" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="1" t="s">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E65" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F65" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="5:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="5:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E56" s="1" t="s">
+    <row r="68" spans="5:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="5:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E60" s="1" t="s">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F73" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E61" s="1" t="s">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F74" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E62" s="1" t="s">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E63" s="1" t="s">
+      <c r="F75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E76" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E64" s="1" t="s">
+      <c r="F76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E77" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F64" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E65" s="1" t="s">
+      <c r="F77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F65" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E66" s="1" t="s">
+      <c r="F78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E67" s="1" t="s">
+      <c r="F79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E68" s="1" t="s">
+      <c r="F80" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F81" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E69" s="1" t="s">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E82" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F69" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E70" s="1" t="s">
+      <c r="F82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F83" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E71" s="1" t="s">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E84" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F84" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E72" s="1" t="s">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E85" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F85" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E78" s="1" t="s">
+    <row r="90" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E91" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="96" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E98" s="4" t="s">
+    <row r="109" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E111" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="4:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E102" s="1" t="s">
+    <row r="112" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="4:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E115" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D105" t="s">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
         <v>33</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E118" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D106" t="s">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
         <v>34</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E119" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E108" t="s">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E121" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E114" s="1" t="s">
+    <row r="126" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="4:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E127" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E119" s="1" t="s">
+    <row r="131" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E132" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E126" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E130" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="133" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E134" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="138" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E139" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E143" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E147" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E152" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34CA285-7DDD-724B-82A9-AB4D0DE5FFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9002BC-0BAA-C641-8965-BB8EF077762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{14C4862E-D5C5-2A49-820C-32CA6AE9D6C2}"/>
   </bookViews>
@@ -605,11 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0A80BD-7D26-6B43-92D3-3508CEB5CD37}">
-  <dimension ref="D1:G152"/>
+  <dimension ref="D1:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,197 +657,151 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
+    <row r="29" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
+    <row r="37" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E54" s="1" t="s">
+    <row r="55" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E63" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E64" t="s">
-        <v>46</v>
+      <c r="E64" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E71" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="5:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="5:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E69" s="1" t="s">
+    <row r="74" spans="5:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="5:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E75" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>38</v>
-      </c>
-      <c r="G74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E77" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="79" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E79" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E80" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F80" t="s">
         <v>38</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E81" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E82" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
         <v>38</v>
@@ -855,103 +809,151 @@
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E83" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E84" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E90" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E91" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F91" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E91" s="1" t="s">
+    <row r="96" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E97" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E111" s="4" t="s">
+    <row r="115" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E117" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="4:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E115" s="1" t="s">
+    <row r="118" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="4:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E121" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D118" t="s">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
         <v>33</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E124" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D119" t="s">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
         <v>34</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E125" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E121" t="s">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E127" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="4:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E127" s="1" t="s">
+    <row r="132" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E133" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E132" s="1" t="s">
+    <row r="137" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E138" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E139" s="1" t="s">
+    <row r="144" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E145" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E143" s="1" t="s">
+    <row r="148" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E149" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E147" s="1" t="s">
+    <row r="152" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E153" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E152" s="1" t="s">
+    <row r="157" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E158" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9002BC-0BAA-C641-8965-BB8EF077762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3C9EB5-FBB6-C042-9915-51C6A6BDB343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{14C4862E-D5C5-2A49-820C-32CA6AE9D6C2}"/>
   </bookViews>
@@ -608,8 +608,8 @@
   <dimension ref="D1:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3C9EB5-FBB6-C042-9915-51C6A6BDB343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC42BF2-430D-0E42-BB39-6E89B62889AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{14C4862E-D5C5-2A49-820C-32CA6AE9D6C2}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC42BF2-430D-0E42-BB39-6E89B62889AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F63A80E-9543-E246-87AD-400074F03325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{14C4862E-D5C5-2A49-820C-32CA6AE9D6C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>drg_location</t>
   </si>
@@ -192,6 +192,48 @@
   </si>
   <si>
     <t>(wp prefix)_zen_terrain_documents</t>
+  </si>
+  <si>
+    <t>hurricane functions:</t>
+  </si>
+  <si>
+    <t>gutenberg-related</t>
+  </si>
+  <si>
+    <t>elementor-related</t>
+  </si>
+  <si>
+    <t>export driggs schema</t>
+  </si>
+  <si>
+    <t>export zen services schema</t>
+  </si>
+  <si>
+    <t>export zen locations schema</t>
+  </si>
+  <si>
+    <t>export json</t>
+  </si>
+  <si>
+    <t>import page data - option 1</t>
+  </si>
+  <si>
+    <t>copy elementor json</t>
+  </si>
+  <si>
+    <t>293 lines (0.325 GB)</t>
+  </si>
+  <si>
+    <t>must have count of lines, etc. to indicate that field is actually</t>
+  </si>
+  <si>
+    <t>populated with data even when user cant see it</t>
+  </si>
+  <si>
+    <t>operation name</t>
+  </si>
+  <si>
+    <t>operation id code</t>
   </si>
 </sst>
 </file>
@@ -265,12 +307,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,355 +649,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0A80BD-7D26-6B43-92D3-3508CEB5CD37}">
-  <dimension ref="D1:G158"/>
+  <dimension ref="D1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
+    <row r="1" spans="4:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="2" t="s">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
+    <row r="62" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
+    <row r="70" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E60" s="1" t="s">
+    <row r="88" spans="5:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="5:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="5:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="5:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="5:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E93" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E62" s="1" t="s">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F95" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E63" s="1" t="s">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E96" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E64" s="1" t="s">
+      <c r="F96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E97" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F64" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E65" s="1" t="s">
+      <c r="F97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E98" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F65" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E66" s="3" t="s">
+      <c r="F98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E99" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E67" s="1" t="s">
+      <c r="F99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E100" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E68" s="1" t="s">
+      <c r="F100" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E101" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E69" s="1" t="s">
+      <c r="F101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F102" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E70" t="s">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
         <v>46</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F103" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E71" s="1" t="s">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E104" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F104" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="5:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="5:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E75" s="1" t="s">
+    <row r="107" spans="5:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E79" s="1" t="s">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E112" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F112" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E80" s="1" t="s">
+    <row r="113" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F80" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F113" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E81" s="1" t="s">
+    <row r="114" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E114" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F81" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E82" s="1" t="s">
+      <c r="F114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E115" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F82" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E83" s="1" t="s">
+      <c r="F115" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E116" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F83" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E84" s="1" t="s">
+      <c r="F116" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E117" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F84" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E85" s="1" t="s">
+      <c r="F117" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F85" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E86" s="1" t="s">
+      <c r="F118" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F86" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E87" s="1" t="s">
+      <c r="F119" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E120" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F120" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E88" s="1" t="s">
+    <row r="121" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E121" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F88" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E89" s="1" t="s">
+      <c r="F121" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E122" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F122" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E90" s="1" t="s">
+    <row r="123" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E123" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F123" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E91" s="1" t="s">
+    <row r="124" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E124" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F124" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E97" s="1" t="s">
+    <row r="129" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E130" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E117" s="4" t="s">
+    <row r="148" spans="4:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="4:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="4:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E150" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="4:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E121" s="1" t="s">
+    <row r="151" spans="4:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="4:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="4:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="4:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E154" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D124" t="s">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
         <v>33</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E157" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D125" t="s">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
         <v>34</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E158" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E127" t="s">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E160" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E133" s="1" t="s">
+    <row r="165" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E166" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E138" s="1" t="s">
+    <row r="170" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E171" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E145" s="1" t="s">
+    <row r="177" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E178" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E149" s="1" t="s">
+    <row r="181" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E182" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E153" s="1" t="s">
+    <row r="185" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E186" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E158" s="1" t="s">
+    <row r="190" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E191" s="1" t="s">
         <v>29</v>
       </c>
     </row>
